--- a/Data/20250615_MOFs_for_PFOS_removal.xlsx
+++ b/Data/20250615_MOFs_for_PFOS_removal.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b95111d48fea833a/OneDrive/Documents/Documents/UL 2/Projects_UL 2/Mosab-Sousa-Qihao_SM collab/From Qihao/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hsm24sch\Documents\ML_Discovery_Metal-Organic_Adsobents\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{E5215A6C-CCAF-4CC3-BB93-AC631F84DDFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09405CA9-19C8-47D4-86B6-6329E60FEEFB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FFF23D6-CD6C-414C-9B9F-9518C8AF669A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11760" xr2:uid="{7F39D62D-7A9E-4BF5-B306-F042DD003CFB}"/>
+    <workbookView xWindow="2364" yWindow="17172" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{7F39D62D-7A9E-4BF5-B306-F042DD003CFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Zeo++" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="122">
   <si>
     <t>Units: pp,: mg/L; ppb: ug/L; ppt: ng/L</t>
   </si>
@@ -1072,78 +1074,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D239C12-0297-412A-B66C-4A4E3762923E}">
-  <dimension ref="A1:W59"/>
+  <dimension ref="A1:X59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="B24" activeCellId="5" sqref="B4:B12 B14 B15 B16 B19 B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.453125" customWidth="1"/>
-    <col min="2" max="2" width="14.54296875" customWidth="1"/>
-    <col min="3" max="3" width="47.1796875" customWidth="1"/>
-    <col min="4" max="4" width="14.7265625" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="21.453125" customWidth="1"/>
-    <col min="7" max="7" width="18.7265625" customWidth="1"/>
-    <col min="9" max="9" width="26.54296875" customWidth="1"/>
-    <col min="10" max="11" width="27.453125" customWidth="1"/>
-    <col min="12" max="12" width="37.81640625" customWidth="1"/>
-    <col min="13" max="13" width="31.26953125" customWidth="1"/>
-    <col min="14" max="14" width="68.54296875" customWidth="1"/>
-    <col min="23" max="23" width="26.26953125" customWidth="1"/>
+    <col min="1" max="2" width="23.453125" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" customWidth="1"/>
+    <col min="4" max="4" width="47.1796875" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="21.453125" customWidth="1"/>
+    <col min="8" max="8" width="18.7265625" customWidth="1"/>
+    <col min="10" max="10" width="26.54296875" customWidth="1"/>
+    <col min="11" max="12" width="27.453125" customWidth="1"/>
+    <col min="13" max="13" width="37.81640625" customWidth="1"/>
+    <col min="14" max="14" width="31.26953125" customWidth="1"/>
+    <col min="15" max="15" width="68.54296875" customWidth="1"/>
+    <col min="24" max="24" width="26.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C1" s="32" t="s">
+    <row r="1" spans="1:24" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D1" s="32" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" ht="81.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="D2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="E2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="F2" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="G2" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="39" t="s">
+      <c r="H2" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="I2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="J2" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="J2" s="38" t="s">
+      <c r="K2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="38" t="s">
+      <c r="L2" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="38" t="s">
+      <c r="M2" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="38" t="s">
+      <c r="N2" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="38" t="s">
+      <c r="O2" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="40"/>
       <c r="P2" s="40"/>
       <c r="Q2" s="40"/>
       <c r="R2" s="40"/>
@@ -1151,11 +1153,12 @@
       <c r="T2" s="40"/>
       <c r="U2" s="40"/>
       <c r="V2" s="40"/>
-      <c r="W2" s="38" t="s">
+      <c r="W2" s="40"/>
+      <c r="X2" s="38" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="27" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" s="27" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="46" t="s">
         <v>14</v>
       </c>
@@ -1172,431 +1175,468 @@
       <c r="L3" s="46"/>
       <c r="M3" s="46"/>
       <c r="N3" s="46"/>
-    </row>
-    <row r="4" spans="1:23" s="1" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="O3" s="46"/>
+    </row>
+    <row r="4" spans="1:24" s="1" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="2" t="str">
+        <f>VLOOKUP(A4,'Zeo++'!$A$2:$A$14,1,FALSE)</f>
+        <v>UiO-66</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>1018045</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
         <v>0.4</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="2">
         <v>6.5</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="36">
+      <c r="K4" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="36">
         <v>66</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="W4" s="35" t="s">
+      <c r="X4" s="35" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="2" t="str">
+        <f>VLOOKUP(A5,'Zeo++'!$A$2:$A$14,1,FALSE)</f>
+        <v>UiO-66-NH2</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F5" s="3">
         <v>1405751</v>
       </c>
-      <c r="F5" s="8">
+      <c r="G5" s="8">
         <v>0.4</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="H5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="8">
+      <c r="I5" s="8">
         <v>6.5</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="37">
+      <c r="K5" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="37">
         <v>46</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="M5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N5" s="7" t="s">
+      <c r="N5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="W5" s="35" t="s">
+      <c r="X5" s="35" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="2" t="e">
+        <f>VLOOKUP(A6,'Zeo++'!$A$2:$A$14,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="3">
+      <c r="F6" s="3">
         <v>1405752</v>
       </c>
-      <c r="F6" s="8">
+      <c r="G6" s="8">
         <v>0.4</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="H6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="8">
+      <c r="I6" s="8">
         <v>6.5</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="37">
+      <c r="K6" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="37">
         <v>38</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="M6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="W6" s="35" t="s">
+      <c r="X6" s="35" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="2" t="str">
+        <f>VLOOKUP(A7,'Zeo++'!$A$2:$A$14,1,FALSE)</f>
+        <v>UiO-66-F4</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="8">
         <v>0.4</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="8">
+      <c r="I7" s="8">
         <v>6.5</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="36">
+      <c r="K7" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="36">
         <v>77</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="M7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N7" s="7" t="s">
+      <c r="N7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="W7" s="35" t="s">
+      <c r="X7" s="35" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="2" t="str">
+        <f>VLOOKUP(A8,'Zeo++'!$A$2:$A$14,1,FALSE)</f>
+        <v>UiO-67</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="8">
+      <c r="F8" s="8">
         <v>960486</v>
       </c>
-      <c r="F8" s="8">
+      <c r="G8" s="8">
         <v>1</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="H8" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>4</v>
       </c>
-      <c r="I8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="14">
+      <c r="J8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="14">
         <v>583</v>
       </c>
-      <c r="K8" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N8" s="11" t="s">
+      <c r="L8" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="W8" s="35" t="s">
+      <c r="X8" s="35" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="2" t="str">
+        <f>VLOOKUP(A9,'Zeo++'!$A$2:$A$14,1,FALSE)</f>
+        <v>MOF-801</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="D9" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1002678</v>
       </c>
-      <c r="F9" s="8">
+      <c r="G9" s="8">
         <v>1</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="H9" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="8" t="s">
-        <v>21</v>
-      </c>
       <c r="I9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="15">
         <v>48</v>
       </c>
-      <c r="K9" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N9" s="11" t="s">
+      <c r="L9" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="W9" s="35" t="s">
+      <c r="X9" s="35" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="2" t="str">
+        <f>VLOOKUP(A10,'Zeo++'!$A$2:$A$14,1,FALSE)</f>
+        <v>PCN-222</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="D10" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>893545</v>
       </c>
-      <c r="F10" s="8">
+      <c r="G10" s="8">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="8">
+      <c r="I10" s="8">
         <v>5</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="J10" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="J10" s="13">
+      <c r="K10" s="13">
         <v>2257</v>
       </c>
-      <c r="K10" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N10" s="11" t="s">
+      <c r="L10" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="W10" s="8" t="s">
+      <c r="X10" s="8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="2" t="str">
+        <f>VLOOKUP(A11,'Zeo++'!$A$2:$A$14,1,FALSE)</f>
+        <v>PCN-224</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="D11" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="3">
+      <c r="F11" s="3">
         <v>1001133</v>
       </c>
-      <c r="F11" s="8">
+      <c r="G11" s="8">
         <v>0.5</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H11" s="8">
+      <c r="I11" s="8">
         <v>3</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="J11" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="J11" s="13">
+      <c r="K11" s="13">
         <v>963</v>
       </c>
-      <c r="K11" s="13">
+      <c r="L11" s="13">
         <v>99</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="M11" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="N11" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="N11" s="11" t="s">
+      <c r="O11" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="W11" s="8" t="s">
+      <c r="X11" s="8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="2" t="str">
+        <f>VLOOKUP(A12,'Zeo++'!$A$2:$A$14,1,FALSE)</f>
+        <v>NU-1000</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="D12" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="E12" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="8">
+      <c r="F12" s="8">
         <v>955328</v>
       </c>
-      <c r="F12" s="8">
+      <c r="G12" s="8">
         <v>1</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="H12" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="H12" s="8" t="s">
-        <v>21</v>
-      </c>
       <c r="I12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="J12" s="14">
+      <c r="K12" s="14">
         <v>620</v>
       </c>
-      <c r="K12" s="13">
+      <c r="L12" s="13">
         <v>98</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="M12" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="N12" s="11" t="s">
+      <c r="O12" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="W12" s="35" t="s">
+      <c r="X12" s="35" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="28" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" s="28" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A13" s="47" t="s">
         <v>73</v>
       </c>
@@ -1613,196 +1653,213 @@
       <c r="L13" s="47"/>
       <c r="M13" s="47"/>
       <c r="N13" s="47"/>
-    </row>
-    <row r="14" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="O13" s="47"/>
+    </row>
+    <row r="14" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="2" t="str">
+        <f>VLOOKUP(A14,'Zeo++'!$A$2:$A$14,1,FALSE)</f>
+        <v>MIL-53(Al)-as</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="D14" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E14" s="19">
+      <c r="F14" s="19">
         <v>2179625</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="H14" s="8">
+      <c r="I14" s="8">
         <v>7</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="J14" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="J14" s="15">
+      <c r="K14" s="15">
         <v>66</v>
       </c>
-      <c r="K14" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="L14" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N14" s="11" t="s">
+      <c r="L14" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O14" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="W14" s="35" t="s">
+      <c r="X14" s="35" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="2" t="str">
+        <f>VLOOKUP(A15,'Zeo++'!$A$2:$A$14,1,FALSE)</f>
+        <v>DUT-4</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="D15" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1228352</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="H15" s="8">
+      <c r="I15" s="8">
         <v>7</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="J15" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="J15" s="15">
+      <c r="K15" s="15">
         <v>171</v>
       </c>
-      <c r="K15" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="L15" s="10" t="s">
+      <c r="L15" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="N15" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="N15" s="11" t="s">
+      <c r="O15" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="W15" s="8" t="s">
+      <c r="X15" s="8" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="2" t="str">
+        <f>VLOOKUP(A16,'Zeo++'!$A$2:$A$14,1,FALSE)</f>
+        <v>DUT-5</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="D16" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="3">
+      <c r="F16" s="3">
         <v>691979</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="H16" s="8">
+      <c r="I16" s="8">
         <v>7</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="J16" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="J16" s="15">
+      <c r="K16" s="15">
         <v>305</v>
       </c>
-      <c r="K16" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="L16" s="10" t="s">
+      <c r="L16" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="M16" s="4" t="s">
+      <c r="N16" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="N16" s="11" t="s">
+      <c r="O16" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="W16" s="10" t="s">
+      <c r="X16" s="10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:23" s="1" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:24" s="1" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="2" t="e">
+        <f>VLOOKUP(A17,'Zeo++'!$A$2:$A$14,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="D17" s="10" t="s">
         <v>40</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="8">
         <v>0.1</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="H17" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H17" s="8">
+      <c r="I17" s="8">
         <v>3</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="J17" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="J17" s="15">
+      <c r="K17" s="15">
         <v>148</v>
       </c>
-      <c r="K17" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="L17" s="8" t="s">
+      <c r="L17" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="M17" s="4" t="s">
+      <c r="N17" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="N17" s="7" t="s">
+      <c r="O17" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W17" s="10" t="s">
+      <c r="X17" s="10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:23" s="29" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:24" s="29" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" s="43" t="s">
         <v>93</v>
       </c>
@@ -1819,55 +1876,60 @@
       <c r="L18" s="43"/>
       <c r="M18" s="43"/>
       <c r="N18" s="43"/>
-    </row>
-    <row r="19" spans="1:23" s="5" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="O18" s="43"/>
+    </row>
+    <row r="19" spans="1:24" s="5" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="2" t="str">
+        <f>VLOOKUP(A19,'Zeo++'!$A$2:$A$14,1,FALSE)</f>
+        <v>ZIF-8</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="D19" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E19" s="3">
+      <c r="F19" s="3">
         <v>2353474</v>
       </c>
-      <c r="F19" s="6">
+      <c r="G19" s="6">
         <v>0.5</v>
       </c>
-      <c r="G19" s="6">
+      <c r="H19" s="6">
         <v>500</v>
       </c>
-      <c r="H19" s="6">
+      <c r="I19" s="6">
         <v>7</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="J19" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="J19" s="25">
+      <c r="K19" s="25">
         <v>401</v>
       </c>
-      <c r="K19" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="L19" s="6" t="s">
+      <c r="L19" s="26" t="s">
         <v>21</v>
       </c>
       <c r="M19" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N19" s="11" t="s">
+      <c r="N19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O19" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="W19" s="35" t="s">
+      <c r="X19" s="35" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:23" s="30" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:24" s="30" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="44" t="s">
         <v>101</v>
       </c>
@@ -1884,102 +1946,111 @@
       <c r="L20" s="44"/>
       <c r="M20" s="44"/>
       <c r="N20" s="44"/>
-    </row>
-    <row r="21" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="O20" s="44"/>
+    </row>
+    <row r="21" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="2" t="e">
+        <f>VLOOKUP(A21,'Zeo++'!$A$2:$A$14,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="D21" s="10" t="s">
         <v>104</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="3">
         <v>0.1</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="H21" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="H21" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="J21" s="33">
+      <c r="K21" s="33">
         <v>142.1</v>
       </c>
-      <c r="K21" s="22">
+      <c r="L21" s="22">
         <v>88.1</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="M21" s="9" t="s">
+      <c r="N21" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="N21" s="11" t="s">
+      <c r="O21" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="W21" s="41" t="s">
+      <c r="X21" s="41" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="2" t="e">
+        <f>VLOOKUP(A22,'Zeo++'!$A$2:$A$14,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="D22" s="10" t="s">
         <v>112</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="3">
         <v>0.1</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="H22" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="H22" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="J22" s="33">
+      <c r="K22" s="33">
         <v>69.099999999999994</v>
       </c>
-      <c r="K22" s="33">
+      <c r="L22" s="33">
         <v>45.7</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="M22" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N22" s="11" t="s">
+      <c r="N22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O22" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="W22" s="41" t="s">
+      <c r="X22" s="41" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:23" s="31" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:24" s="31" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="45" t="s">
         <v>113</v>
       </c>
@@ -1996,66 +2067,72 @@
       <c r="L23" s="45"/>
       <c r="M23" s="45"/>
       <c r="N23" s="45"/>
-    </row>
-    <row r="24" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="O23" s="45"/>
+    </row>
+    <row r="24" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="str">
+        <f>VLOOKUP(A24,'Zeo++'!$A$2:$A$14,1,FALSE)</f>
+        <v>ZIF-67</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="D24" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="E24" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="E24" s="8">
+      <c r="F24" s="8">
         <v>1429244</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>0.5</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="H24" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H24" s="18">
+      <c r="I24" s="18">
         <v>7</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="J24" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="J24" s="22">
+      <c r="K24" s="22">
         <v>727</v>
       </c>
-      <c r="K24" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24" s="3" t="s">
+      <c r="L24" s="21" t="s">
         <v>21</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N24" s="11" t="s">
+      <c r="N24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O24" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="W24" s="35" t="s">
+      <c r="X24" s="35" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="42" t="s">
         <v>119</v>
       </c>
       <c r="B26" s="42"/>
-    </row>
-    <row r="28" spans="1:23" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="1:23" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="1:23" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:23" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="1:23" ht="14.5" x14ac:dyDescent="0.35"/>
+      <c r="C26" s="42"/>
+    </row>
+    <row r="28" spans="1:24" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="1:24" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="1:24" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:24" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:24" ht="14.5" x14ac:dyDescent="0.35"/>
     <row r="33" ht="14.5" x14ac:dyDescent="0.35"/>
     <row r="34" ht="14.5" x14ac:dyDescent="0.35"/>
     <row r="35" ht="14.5" x14ac:dyDescent="0.35"/>
@@ -2068,32 +2145,115 @@
     <row r="59" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A18:N18"/>
-    <mergeCell ref="A20:N20"/>
-    <mergeCell ref="A23:N23"/>
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="A13:N13"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A18:O18"/>
+    <mergeCell ref="A20:O20"/>
+    <mergeCell ref="A23:O23"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="A13:O13"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="N4" r:id="rId1" xr:uid="{0A791055-9D76-4B2C-AED2-28ACE3BBA4B4}"/>
-    <hyperlink ref="N5" r:id="rId2" xr:uid="{046BE461-0248-4061-B159-0C9BB763C907}"/>
-    <hyperlink ref="N6:N7" r:id="rId3" display="https://advanced.onlinelibrary.wiley.com/doi/full/10.1002/adma.202413120" xr:uid="{87486865-AC74-45D9-9BFB-C9607BEFE4D5}"/>
-    <hyperlink ref="N12" r:id="rId4" xr:uid="{59B741F2-1411-45E6-A4B7-D6011CD2E455}"/>
-    <hyperlink ref="N21" r:id="rId5" xr:uid="{E27F8C58-92D9-4C4C-8F3E-D627EA9BADC0}"/>
-    <hyperlink ref="N22" r:id="rId6" xr:uid="{3527C01A-E922-4733-B839-9D313B507F2A}"/>
-    <hyperlink ref="N8" r:id="rId7" location="s0010" xr:uid="{0365E304-DB14-4B21-A7A5-C81663ABF977}"/>
-    <hyperlink ref="N9" r:id="rId8" xr:uid="{7D5168EE-8C9E-406D-93C0-904056B0A1E0}"/>
-    <hyperlink ref="N10" r:id="rId9" location="s0010" xr:uid="{8DF6C505-D18E-4914-B8AF-696848AD4F68}"/>
-    <hyperlink ref="N11" r:id="rId10" xr:uid="{BF2C9CB7-F1A9-4C05-AFEF-0F50864CD074}"/>
-    <hyperlink ref="N14" r:id="rId11" xr:uid="{4D74A46E-A6FE-4CCE-945A-EFA4B890AD05}"/>
-    <hyperlink ref="N15" r:id="rId12" xr:uid="{1B14012B-0737-4830-9C5D-8EF2BF1C5F65}"/>
-    <hyperlink ref="N16" r:id="rId13" xr:uid="{652142A1-AF16-4E08-9A02-3CCA454CFA4F}"/>
-    <hyperlink ref="N24" r:id="rId14" xr:uid="{07F75260-A95C-4845-A6B3-70861DB695BD}"/>
-    <hyperlink ref="N19" r:id="rId15" location="sec0010" xr:uid="{C6BD8929-B831-4B16-9C41-7912EC1C4678}"/>
-    <hyperlink ref="N17" r:id="rId16" xr:uid="{3AEBBAD6-D800-41D4-A26F-20B7B239E7DF}"/>
+    <hyperlink ref="O4" r:id="rId1" xr:uid="{0A791055-9D76-4B2C-AED2-28ACE3BBA4B4}"/>
+    <hyperlink ref="O5" r:id="rId2" xr:uid="{046BE461-0248-4061-B159-0C9BB763C907}"/>
+    <hyperlink ref="O6:O7" r:id="rId3" display="https://advanced.onlinelibrary.wiley.com/doi/full/10.1002/adma.202413120" xr:uid="{87486865-AC74-45D9-9BFB-C9607BEFE4D5}"/>
+    <hyperlink ref="O12" r:id="rId4" xr:uid="{59B741F2-1411-45E6-A4B7-D6011CD2E455}"/>
+    <hyperlink ref="O21" r:id="rId5" xr:uid="{E27F8C58-92D9-4C4C-8F3E-D627EA9BADC0}"/>
+    <hyperlink ref="O22" r:id="rId6" xr:uid="{3527C01A-E922-4733-B839-9D313B507F2A}"/>
+    <hyperlink ref="O8" r:id="rId7" location="s0010" xr:uid="{0365E304-DB14-4B21-A7A5-C81663ABF977}"/>
+    <hyperlink ref="O9" r:id="rId8" xr:uid="{7D5168EE-8C9E-406D-93C0-904056B0A1E0}"/>
+    <hyperlink ref="O10" r:id="rId9" location="s0010" xr:uid="{8DF6C505-D18E-4914-B8AF-696848AD4F68}"/>
+    <hyperlink ref="O11" r:id="rId10" xr:uid="{BF2C9CB7-F1A9-4C05-AFEF-0F50864CD074}"/>
+    <hyperlink ref="O14" r:id="rId11" xr:uid="{4D74A46E-A6FE-4CCE-945A-EFA4B890AD05}"/>
+    <hyperlink ref="O15" r:id="rId12" xr:uid="{1B14012B-0737-4830-9C5D-8EF2BF1C5F65}"/>
+    <hyperlink ref="O16" r:id="rId13" xr:uid="{652142A1-AF16-4E08-9A02-3CCA454CFA4F}"/>
+    <hyperlink ref="O24" r:id="rId14" xr:uid="{07F75260-A95C-4845-A6B3-70861DB695BD}"/>
+    <hyperlink ref="O19" r:id="rId15" location="sec0010" xr:uid="{C6BD8929-B831-4B16-9C41-7912EC1C4678}"/>
+    <hyperlink ref="O17" r:id="rId16" xr:uid="{3AEBBAD6-D800-41D4-A26F-20B7B239E7DF}"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E3AA3C-A9F0-4AC8-9636-FC38F44666C1}">
+  <dimension ref="A2:A14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
